--- a/data/archive/D50_USGS_YRB.xlsx
+++ b/data/archive/D50_USGS_YRB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/projects/ebsd/d50_ml/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/peterregier/d50_computer_vision/data/archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="8_{C698790F-4462-4E8D-8160-034C889AFA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE19E694-0B0C-1643-99DD-04E5827FD7EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31860" windowHeight="19060" xr2:uid="{D65DBAAC-9BF3-41BB-AC6E-46B1193FC144}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31860" windowHeight="19060" xr2:uid="{D65DBAAC-9BF3-41BB-AC6E-46B1193FC144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7356,8 +7356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75100844-3A05-4526-B21E-2666291131CB}">
   <dimension ref="A1:U351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
